--- a/financejson/tests/test.xlsx
+++ b/financejson/tests/test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>symbol</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>US_XYZ</t>
+  </si>
+  <si>
+    <t>index_symbol</t>
   </si>
   <si>
     <t>currency</t>
@@ -506,27 +509,33 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>25</v>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="C1" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
       </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -535,18 +544,18 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
@@ -560,24 +569,30 @@
       <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>4</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>5</v>
       </c>
     </row>
@@ -611,22 +626,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -634,22 +655,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -657,15 +684,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -673,117 +700,150 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>2019</v>
       </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>12.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
       <c r="B2">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>12.4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>2019</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -791,18 +851,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
@@ -816,26 +876,32 @@
       <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>23</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
       </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/financejson/tests/test.xlsx
+++ b/financejson/tests/test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
   <si>
     <t>symbol</t>
   </si>
@@ -65,6 +65,9 @@
     <t>period</t>
   </si>
   <si>
+    <t>2019-01-01</t>
+  </si>
+  <si>
     <t>+1q</t>
   </si>
   <si>
@@ -90,9 +93,6 @@
   </si>
   <si>
     <t>country</t>
-  </si>
-  <si>
-    <t>2019-01-01</t>
   </si>
   <si>
     <t>foo</t>
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -783,81 +783,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -865,19 +797,102 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -885,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
